--- a/Mifos Automation Excels/Loan Product/102-RBI-EPP-DB-DL-REC-NON-RNI-CTPD-DL-MD-TR-1-ONTIME-Loanproduct.xlsx
+++ b/Mifos Automation Excels/Loan Product/102-RBI-EPP-DB-DL-REC-NON-RNI-CTPD-DL-MD-TR-1-ONTIME-Loanproduct.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="ProductLoanInput" sheetId="1" r:id="rId1"/>
@@ -32,9 +32,6 @@
     <t>includeincustomerloancounter</t>
   </si>
   <si>
-    <t>Currency</t>
-  </si>
-  <si>
     <t>decimalplaces</t>
   </si>
   <si>
@@ -134,9 +131,6 @@
     <t>checked</t>
   </si>
   <si>
-    <t xml:space="preserve">US Dollar </t>
-  </si>
-  <si>
     <t>Per month</t>
   </si>
   <si>
@@ -225,6 +219,12 @@
   </si>
   <si>
     <t>verifyloanproduct</t>
+  </si>
+  <si>
+    <t>currency</t>
+  </si>
+  <si>
+    <t>US Dollar</t>
   </si>
 </sst>
 </file>
@@ -302,7 +302,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyFill="1"/>
     <xf numFmtId="3" fontId="1" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1"/>
@@ -329,6 +329,7 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -634,8 +635,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B43"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6:B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -649,7 +650,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -671,7 +672,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -679,20 +680,20 @@
         <v>4</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>39</v>
+        <v>68</v>
+      </c>
+      <c r="B6" s="16" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="13" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7" s="7">
         <v>2</v>
@@ -700,7 +701,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="13" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8" s="2">
         <v>0</v>
@@ -708,7 +709,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="9" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9" s="2">
         <v>10000</v>
@@ -716,7 +717,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="9" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10" s="1">
         <v>12</v>
@@ -724,7 +725,7 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="9" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11" s="1">
         <v>1</v>
@@ -732,15 +733,15 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13" s="1">
         <v>1</v>
@@ -748,103 +749,103 @@
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="13" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" s="13" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" s="13" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="13" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="13" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="13" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="13" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" s="9" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" s="14" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" s="14" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" s="14" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" s="14" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" s="14" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B26" s="10">
         <v>1</v>
@@ -852,7 +853,7 @@
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" s="14" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B27" s="11">
         <v>42005</v>
@@ -860,15 +861,15 @@
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" s="14" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" s="14" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B29" s="5">
         <v>1</v>
@@ -876,7 +877,7 @@
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" s="15" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B30" s="5">
         <v>10000</v>
@@ -884,106 +885,106 @@
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" s="14" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" s="9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" s="9" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" s="9" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" s="9" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" s="9" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" s="9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" s="9" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" s="9" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" s="9" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" s="9" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" s="9" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" s="9" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
   </sheetData>
@@ -996,7 +997,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1006,10 +1007,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="9" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
   </sheetData>

--- a/Mifos Automation Excels/Loan Product/102-RBI-EPP-DB-DL-REC-NON-RNI-CTPD-DL-MD-TR-1-ONTIME-Loanproduct.xlsx
+++ b/Mifos Automation Excels/Loan Product/102-RBI-EPP-DB-DL-REC-NON-RNI-CTPD-DL-MD-TR-1-ONTIME-Loanproduct.xlsx
@@ -140,9 +140,6 @@
     <t>Declining Balance</t>
   </si>
   <si>
-    <t>RBI (India)</t>
-  </si>
-  <si>
     <t>Daily</t>
   </si>
   <si>
@@ -225,6 +222,9 @@
   </si>
   <si>
     <t>US Dollar</t>
+  </si>
+  <si>
+    <t>Overdue/Due Fee/Int,Principal</t>
   </si>
 </sst>
 </file>
@@ -302,7 +302,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyFill="1"/>
     <xf numFmtId="3" fontId="1" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1"/>
@@ -330,6 +330,7 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -636,7 +637,7 @@
   <dimension ref="A1:B43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6:B6"/>
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -650,7 +651,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -672,7 +673,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -685,10 +686,10 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="B6" s="16" t="s">
         <v>68</v>
-      </c>
-      <c r="B6" s="16" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -760,7 +761,7 @@
         <v>13</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
@@ -775,8 +776,8 @@
       <c r="A17" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="B17" s="5" t="s">
-        <v>41</v>
+      <c r="B17" s="17" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
@@ -784,7 +785,7 @@
         <v>16</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
@@ -792,7 +793,7 @@
         <v>17</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
@@ -800,7 +801,7 @@
         <v>18</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
@@ -813,10 +814,10 @@
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="B22" s="5" t="s">
         <v>60</v>
-      </c>
-      <c r="B22" s="5" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
@@ -824,7 +825,7 @@
         <v>20</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
@@ -832,7 +833,7 @@
         <v>21</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
@@ -840,12 +841,12 @@
         <v>22</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" s="14" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B26" s="10">
         <v>1</v>
@@ -853,7 +854,7 @@
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" s="14" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B27" s="11">
         <v>42005</v>
@@ -877,7 +878,7 @@
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" s="15" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B30" s="5">
         <v>10000</v>
@@ -885,7 +886,7 @@
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" s="14" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B31" s="3" t="s">
         <v>37</v>
@@ -896,7 +897,7 @@
         <v>25</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
@@ -904,7 +905,7 @@
         <v>26</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
@@ -912,7 +913,7 @@
         <v>27</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
@@ -920,7 +921,7 @@
         <v>28</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
@@ -928,7 +929,7 @@
         <v>29</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
@@ -936,7 +937,7 @@
         <v>30</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
@@ -944,7 +945,7 @@
         <v>31</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
@@ -952,7 +953,7 @@
         <v>32</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
@@ -960,7 +961,7 @@
         <v>33</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
@@ -968,7 +969,7 @@
         <v>34</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
@@ -976,7 +977,7 @@
         <v>35</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
@@ -984,7 +985,7 @@
         <v>36</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
   </sheetData>
@@ -1007,10 +1008,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="9" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
   </sheetData>
